--- a/Old Data/Bulk data.xlsx
+++ b/Old Data/Bulk data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derfj\Desktop\NBAdb\NBAdb\Old Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9714531-15FA-490F-B72B-C5301A8187A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED83F7C-5AEF-4D1A-AF7F-6D9F998425FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{0EDC57B0-7187-488A-96E2-9FDA3F612365}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1427">
   <si>
     <t>0021800053</t>
   </si>
@@ -3582,240 +3582,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>0041700104</t>
-  </si>
-  <si>
-    <t>0041700105</t>
-  </si>
-  <si>
-    <t>0041700106</t>
-  </si>
-  <si>
-    <t>0041700111</t>
-  </si>
-  <si>
-    <t>0041700112</t>
-  </si>
-  <si>
-    <t>0041700113</t>
-  </si>
-  <si>
-    <t>0041700114</t>
-  </si>
-  <si>
-    <t>0041700115</t>
-  </si>
-  <si>
-    <t>0041700116</t>
-  </si>
-  <si>
-    <t>0041700117</t>
-  </si>
-  <si>
-    <t>0041700121</t>
-  </si>
-  <si>
-    <t>0041700122</t>
-  </si>
-  <si>
-    <t>0041700123</t>
-  </si>
-  <si>
-    <t>0041700124</t>
-  </si>
-  <si>
-    <t>0041700125</t>
-  </si>
-  <si>
-    <t>0041700131</t>
-  </si>
-  <si>
-    <t>0041700132</t>
-  </si>
-  <si>
-    <t>0041700133</t>
-  </si>
-  <si>
-    <t>0041700134</t>
-  </si>
-  <si>
-    <t>0041700135</t>
-  </si>
-  <si>
-    <t>0041700136</t>
-  </si>
-  <si>
-    <t>0041700137</t>
-  </si>
-  <si>
-    <t>0041700141</t>
-  </si>
-  <si>
-    <t>0041700142</t>
-  </si>
-  <si>
-    <t>0041700143</t>
-  </si>
-  <si>
-    <t>0041700144</t>
-  </si>
-  <si>
-    <t>0041700145</t>
-  </si>
-  <si>
-    <t>0041700151</t>
-  </si>
-  <si>
-    <t>0041700152</t>
-  </si>
-  <si>
-    <t>0041700153</t>
-  </si>
-  <si>
-    <t>0041700154</t>
-  </si>
-  <si>
-    <t>0041700161</t>
-  </si>
-  <si>
-    <t>0041700162</t>
-  </si>
-  <si>
-    <t>0041700163</t>
-  </si>
-  <si>
-    <t>0041700164</t>
-  </si>
-  <si>
-    <t>0041700171</t>
-  </si>
-  <si>
-    <t>0041700172</t>
-  </si>
-  <si>
-    <t>0041700173</t>
-  </si>
-  <si>
-    <t>0041700174</t>
-  </si>
-  <si>
-    <t>0041700175</t>
-  </si>
-  <si>
-    <t>0041700176</t>
-  </si>
-  <si>
-    <t>0041700201</t>
-  </si>
-  <si>
-    <t>0041700202</t>
-  </si>
-  <si>
-    <t>0041700203</t>
-  </si>
-  <si>
-    <t>0041700204</t>
-  </si>
-  <si>
-    <t>0041700211</t>
-  </si>
-  <si>
-    <t>0041700212</t>
-  </si>
-  <si>
-    <t>0041700213</t>
-  </si>
-  <si>
-    <t>0041700214</t>
-  </si>
-  <si>
-    <t>0041700215</t>
-  </si>
-  <si>
-    <t>0041700221</t>
-  </si>
-  <si>
-    <t>0041700222</t>
-  </si>
-  <si>
-    <t>0041700223</t>
-  </si>
-  <si>
-    <t>0041700224</t>
-  </si>
-  <si>
-    <t>0041700225</t>
-  </si>
-  <si>
-    <t>0041700231</t>
-  </si>
-  <si>
-    <t>0041700232</t>
-  </si>
-  <si>
-    <t>0041700233</t>
-  </si>
-  <si>
-    <t>0041700234</t>
-  </si>
-  <si>
-    <t>0041700235</t>
-  </si>
-  <si>
-    <t>0041700301</t>
-  </si>
-  <si>
-    <t>0041700302</t>
-  </si>
-  <si>
-    <t>0041700303</t>
-  </si>
-  <si>
-    <t>0041700304</t>
-  </si>
-  <si>
-    <t>0041700305</t>
-  </si>
-  <si>
-    <t>0041700306</t>
-  </si>
-  <si>
-    <t>0041700307</t>
-  </si>
-  <si>
-    <t>0041700311</t>
-  </si>
-  <si>
-    <t>0041700312</t>
-  </si>
-  <si>
-    <t>0041700313</t>
-  </si>
-  <si>
-    <t>0041700314</t>
-  </si>
-  <si>
-    <t>0041700315</t>
-  </si>
-  <si>
-    <t>0041700316</t>
-  </si>
-  <si>
-    <t>0041700317</t>
-  </si>
-  <si>
-    <t>0041700401</t>
-  </si>
-  <si>
-    <t>0041700402</t>
-  </si>
-  <si>
-    <t>0041700403</t>
-  </si>
-  <si>
-    <t>0041700404</t>
-  </si>
-  <si>
     <t>0041600101</t>
   </si>
   <si>
@@ -4552,528 +4318,6 @@
   </si>
   <si>
     <t>0041400406</t>
-  </si>
-  <si>
-    <t>0041300101</t>
-  </si>
-  <si>
-    <t>0041300102</t>
-  </si>
-  <si>
-    <t>0041300103</t>
-  </si>
-  <si>
-    <t>0041300104</t>
-  </si>
-  <si>
-    <t>0041300105</t>
-  </si>
-  <si>
-    <t>0041300106</t>
-  </si>
-  <si>
-    <t>0041300107</t>
-  </si>
-  <si>
-    <t>0041300111</t>
-  </si>
-  <si>
-    <t>0041300112</t>
-  </si>
-  <si>
-    <t>0041300113</t>
-  </si>
-  <si>
-    <t>0041300114</t>
-  </si>
-  <si>
-    <t>0041300121</t>
-  </si>
-  <si>
-    <t>0041300122</t>
-  </si>
-  <si>
-    <t>0041300123</t>
-  </si>
-  <si>
-    <t>0041300124</t>
-  </si>
-  <si>
-    <t>0041300125</t>
-  </si>
-  <si>
-    <t>0041300126</t>
-  </si>
-  <si>
-    <t>0041300127</t>
-  </si>
-  <si>
-    <t>0041300131</t>
-  </si>
-  <si>
-    <t>0041300132</t>
-  </si>
-  <si>
-    <t>0041300133</t>
-  </si>
-  <si>
-    <t>0041300134</t>
-  </si>
-  <si>
-    <t>0041300135</t>
-  </si>
-  <si>
-    <t>0041300141</t>
-  </si>
-  <si>
-    <t>0041300142</t>
-  </si>
-  <si>
-    <t>0041300143</t>
-  </si>
-  <si>
-    <t>0041300144</t>
-  </si>
-  <si>
-    <t>0041300145</t>
-  </si>
-  <si>
-    <t>0041300146</t>
-  </si>
-  <si>
-    <t>0041300147</t>
-  </si>
-  <si>
-    <t>0041300151</t>
-  </si>
-  <si>
-    <t>0041300152</t>
-  </si>
-  <si>
-    <t>0041300153</t>
-  </si>
-  <si>
-    <t>0041300154</t>
-  </si>
-  <si>
-    <t>0041300155</t>
-  </si>
-  <si>
-    <t>0041300156</t>
-  </si>
-  <si>
-    <t>0041300157</t>
-  </si>
-  <si>
-    <t>0041300161</t>
-  </si>
-  <si>
-    <t>0041300162</t>
-  </si>
-  <si>
-    <t>0041300163</t>
-  </si>
-  <si>
-    <t>0041300164</t>
-  </si>
-  <si>
-    <t>0041300165</t>
-  </si>
-  <si>
-    <t>0041300166</t>
-  </si>
-  <si>
-    <t>0041300167</t>
-  </si>
-  <si>
-    <t>0041300171</t>
-  </si>
-  <si>
-    <t>0041300172</t>
-  </si>
-  <si>
-    <t>0041300173</t>
-  </si>
-  <si>
-    <t>0041300174</t>
-  </si>
-  <si>
-    <t>0041300175</t>
-  </si>
-  <si>
-    <t>0041300176</t>
-  </si>
-  <si>
-    <t>0041300201</t>
-  </si>
-  <si>
-    <t>0041300202</t>
-  </si>
-  <si>
-    <t>0041300203</t>
-  </si>
-  <si>
-    <t>0041300204</t>
-  </si>
-  <si>
-    <t>0041300205</t>
-  </si>
-  <si>
-    <t>0041300206</t>
-  </si>
-  <si>
-    <t>0041300211</t>
-  </si>
-  <si>
-    <t>0041300212</t>
-  </si>
-  <si>
-    <t>0041300213</t>
-  </si>
-  <si>
-    <t>0041300214</t>
-  </si>
-  <si>
-    <t>0041300215</t>
-  </si>
-  <si>
-    <t>0041300221</t>
-  </si>
-  <si>
-    <t>0041300222</t>
-  </si>
-  <si>
-    <t>0041300223</t>
-  </si>
-  <si>
-    <t>0041300224</t>
-  </si>
-  <si>
-    <t>0041300225</t>
-  </si>
-  <si>
-    <t>0041300231</t>
-  </si>
-  <si>
-    <t>0041300232</t>
-  </si>
-  <si>
-    <t>0041300233</t>
-  </si>
-  <si>
-    <t>0041300234</t>
-  </si>
-  <si>
-    <t>0041300235</t>
-  </si>
-  <si>
-    <t>0041300236</t>
-  </si>
-  <si>
-    <t>0041300301</t>
-  </si>
-  <si>
-    <t>0041300302</t>
-  </si>
-  <si>
-    <t>0041300303</t>
-  </si>
-  <si>
-    <t>0041300304</t>
-  </si>
-  <si>
-    <t>0041300305</t>
-  </si>
-  <si>
-    <t>0041300306</t>
-  </si>
-  <si>
-    <t>0041300311</t>
-  </si>
-  <si>
-    <t>0041300312</t>
-  </si>
-  <si>
-    <t>0041300313</t>
-  </si>
-  <si>
-    <t>0041300314</t>
-  </si>
-  <si>
-    <t>0041300315</t>
-  </si>
-  <si>
-    <t>0041300316</t>
-  </si>
-  <si>
-    <t>0041300401</t>
-  </si>
-  <si>
-    <t>0041300402</t>
-  </si>
-  <si>
-    <t>0041300403</t>
-  </si>
-  <si>
-    <t>0041300404</t>
-  </si>
-  <si>
-    <t>0041300405</t>
-  </si>
-  <si>
-    <t>0041200101</t>
-  </si>
-  <si>
-    <t>0041200102</t>
-  </si>
-  <si>
-    <t>0041200103</t>
-  </si>
-  <si>
-    <t>0041200104</t>
-  </si>
-  <si>
-    <t>0041200111</t>
-  </si>
-  <si>
-    <t>0041200112</t>
-  </si>
-  <si>
-    <t>0041200113</t>
-  </si>
-  <si>
-    <t>0041200114</t>
-  </si>
-  <si>
-    <t>0041200115</t>
-  </si>
-  <si>
-    <t>0041200116</t>
-  </si>
-  <si>
-    <t>0041200121</t>
-  </si>
-  <si>
-    <t>0041200122</t>
-  </si>
-  <si>
-    <t>0041200123</t>
-  </si>
-  <si>
-    <t>0041200124</t>
-  </si>
-  <si>
-    <t>0041200125</t>
-  </si>
-  <si>
-    <t>0041200126</t>
-  </si>
-  <si>
-    <t>0041200131</t>
-  </si>
-  <si>
-    <t>0041200132</t>
-  </si>
-  <si>
-    <t>0041200133</t>
-  </si>
-  <si>
-    <t>0041200134</t>
-  </si>
-  <si>
-    <t>0041200135</t>
-  </si>
-  <si>
-    <t>0041200136</t>
-  </si>
-  <si>
-    <t>0041200137</t>
-  </si>
-  <si>
-    <t>0041200141</t>
-  </si>
-  <si>
-    <t>0041200142</t>
-  </si>
-  <si>
-    <t>0041200143</t>
-  </si>
-  <si>
-    <t>0041200144</t>
-  </si>
-  <si>
-    <t>0041200145</t>
-  </si>
-  <si>
-    <t>0041200146</t>
-  </si>
-  <si>
-    <t>0041200151</t>
-  </si>
-  <si>
-    <t>0041200152</t>
-  </si>
-  <si>
-    <t>0041200153</t>
-  </si>
-  <si>
-    <t>0041200154</t>
-  </si>
-  <si>
-    <t>0041200161</t>
-  </si>
-  <si>
-    <t>0041200162</t>
-  </si>
-  <si>
-    <t>0041200163</t>
-  </si>
-  <si>
-    <t>0041200164</t>
-  </si>
-  <si>
-    <t>0041200165</t>
-  </si>
-  <si>
-    <t>0041200166</t>
-  </si>
-  <si>
-    <t>0041200171</t>
-  </si>
-  <si>
-    <t>0041200172</t>
-  </si>
-  <si>
-    <t>0041200173</t>
-  </si>
-  <si>
-    <t>0041200174</t>
-  </si>
-  <si>
-    <t>0041200175</t>
-  </si>
-  <si>
-    <t>0041200176</t>
-  </si>
-  <si>
-    <t>0041200201</t>
-  </si>
-  <si>
-    <t>0041200202</t>
-  </si>
-  <si>
-    <t>0041200203</t>
-  </si>
-  <si>
-    <t>0041200204</t>
-  </si>
-  <si>
-    <t>0041200205</t>
-  </si>
-  <si>
-    <t>0041200211</t>
-  </si>
-  <si>
-    <t>0041200212</t>
-  </si>
-  <si>
-    <t>0041200213</t>
-  </si>
-  <si>
-    <t>0041200214</t>
-  </si>
-  <si>
-    <t>0041200215</t>
-  </si>
-  <si>
-    <t>0041200216</t>
-  </si>
-  <si>
-    <t>0041200221</t>
-  </si>
-  <si>
-    <t>0041200222</t>
-  </si>
-  <si>
-    <t>0041200223</t>
-  </si>
-  <si>
-    <t>0041200224</t>
-  </si>
-  <si>
-    <t>0041200225</t>
-  </si>
-  <si>
-    <t>0041200231</t>
-  </si>
-  <si>
-    <t>0041200232</t>
-  </si>
-  <si>
-    <t>0041200233</t>
-  </si>
-  <si>
-    <t>0041200234</t>
-  </si>
-  <si>
-    <t>0041200235</t>
-  </si>
-  <si>
-    <t>0041200236</t>
-  </si>
-  <si>
-    <t>0041200301</t>
-  </si>
-  <si>
-    <t>0041200302</t>
-  </si>
-  <si>
-    <t>0041200303</t>
-  </si>
-  <si>
-    <t>0041200304</t>
-  </si>
-  <si>
-    <t>0041200305</t>
-  </si>
-  <si>
-    <t>0041200306</t>
-  </si>
-  <si>
-    <t>0041200307</t>
-  </si>
-  <si>
-    <t>0041200311</t>
-  </si>
-  <si>
-    <t>0041200312</t>
-  </si>
-  <si>
-    <t>0041200313</t>
-  </si>
-  <si>
-    <t>0041200314</t>
-  </si>
-  <si>
-    <t>0041200401</t>
-  </si>
-  <si>
-    <t>0041200402</t>
-  </si>
-  <si>
-    <t>0041200403</t>
-  </si>
-  <si>
-    <t>0041200404</t>
-  </si>
-  <si>
-    <t>0041200405</t>
-  </si>
-  <si>
-    <t>0041200406</t>
-  </si>
-  <si>
-    <t>0041200407</t>
   </si>
 </sst>
 </file>
@@ -5165,8 +4409,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59BD15A9-EE6F-4670-8DAB-5CD18E7157AD}" name="Table2" displayName="Table2" ref="A1:B3013" totalsRowShown="0">
-  <autoFilter ref="A1:B3013" xr:uid="{59BD15A9-EE6F-4670-8DAB-5CD18E7157AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59BD15A9-EE6F-4670-8DAB-5CD18E7157AD}" name="Table2" displayName="Table2" ref="A1:B2761" totalsRowShown="0">
+  <autoFilter ref="A1:B2761" xr:uid="{59BD15A9-EE6F-4670-8DAB-5CD18E7157AD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D550305C-F6C2-4977-8231-CCD41D36770A}" name="game"/>
     <tableColumn id="2" xr3:uid="{80257AE0-2D7D-4E6D-9760-0149162FD491}" name="link" dataDxfId="0">
@@ -16126,10 +15370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133C4114-1B37-4F94-A72C-7016DC8BF7B6}">
-  <dimension ref="A1:G3013"/>
+  <dimension ref="A1:G2761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16138,7 +15382,7 @@
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1176</v>
       </c>
@@ -16146,862 +15390,865 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700104/play-by-play</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600101/play-by-play</v>
+      </c>
+      <c r="G2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700105/play-by-play</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600102/play-by-play</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A4,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700106/play-by-play</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600103/play-by-play</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A5,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700111/play-by-play</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600104/play-by-play</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A6,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700112/play-by-play</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600105/play-by-play</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A7,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700113/play-by-play</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600106/play-by-play</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A8,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700114/play-by-play</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600101/play-by-play</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A9,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700115/play-by-play</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600102/play-by-play</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A10,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700116/play-by-play</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600103/play-by-play</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A11,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700117/play-by-play</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600104/play-by-play</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A12,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700121/play-by-play</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600105/play-by-play</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A13,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700122/play-by-play</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600106/play-by-play</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A14,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700123/play-by-play</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600111/play-by-play</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A15,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700124/play-by-play</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600112/play-by-play</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A16,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600113/play-by-play</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A17,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600114/play-by-play</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A18,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600121/play-by-play</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A19,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600122/play-by-play</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A20,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600123/play-by-play</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A21,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700135/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600124/play-by-play</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A22,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700136/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600125/play-by-play</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A23,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700137/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600126/play-by-play</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A24,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600131/play-by-play</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B25" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A25,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600132/play-by-play</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A26,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600133/play-by-play</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A27,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600134/play-by-play</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B28" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A28,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700145/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600135/play-by-play</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B29" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A29,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600136/play-by-play</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B30" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A30,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600141/play-by-play</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B31" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A31,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600142/play-by-play</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B32" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A32,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600143/play-by-play</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B33" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A33,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600144/play-by-play</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B34" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A34,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600151/play-by-play</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B35" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A35,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600152/play-by-play</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B36" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A36,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600153/play-by-play</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B37" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A37,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600154/play-by-play</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B38" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A38,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600155/play-by-play</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B39" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A39,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600156/play-by-play</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B40" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A40,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600161/play-by-play</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B41" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A41,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600162/play-by-play</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B42" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A42,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700176/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600163/play-by-play</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B43" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A43,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600164/play-by-play</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B44" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A44,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600165/play-by-play</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B45" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A45,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600171/play-by-play</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B46" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A46,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600172/play-by-play</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B47" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A47,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600173/play-by-play</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B48" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A48,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600174/play-by-play</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B49" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A49,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600175/play-by-play</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B50" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A50,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600176/play-by-play</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B51" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A51,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700215/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600177/play-by-play</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B52" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A52,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600201/play-by-play</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B53" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A53,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600202/play-by-play</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B54" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A54,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600203/play-by-play</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B55" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A55,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600204/play-by-play</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B56" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A56,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700225/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600205/play-by-play</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B57" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A57,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600206/play-by-play</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B58" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A58,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600207/play-by-play</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B59" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A59,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600211/play-by-play</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B60" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A60,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600212/play-by-play</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B61" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A61,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600213/play-by-play</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B62" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A62,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600214/play-by-play</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B63" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A63,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041600221/play-by-play</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="B64" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A64,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700303/play-by-play</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600222/play-by-play</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B65" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A65,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700304/play-by-play</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600223/play-by-play</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B66" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A66,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700305/play-by-play</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600224/play-by-play</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B67" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A67,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700306/play-by-play</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600231/play-by-play</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B68" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A68,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700307/play-by-play</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600232/play-by-play</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B69" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A69,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700311/play-by-play</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600233/play-by-play</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B70" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A70,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700312/play-by-play</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600234/play-by-play</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B71" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A71,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700313/play-by-play</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600235/play-by-play</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B72" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A72,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700314/play-by-play</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600236/play-by-play</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B73" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A73,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700315/play-by-play</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600301/play-by-play</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B74" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A74,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700316/play-by-play</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600302/play-by-play</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B75" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A75,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700317/play-by-play</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600303/play-by-play</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B76" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A76,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700401/play-by-play</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600304/play-by-play</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B77" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A77,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700402/play-by-play</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600305/play-by-play</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B78" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A78,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700403/play-by-play</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600311/play-by-play</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B79" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A79,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041700404/play-by-play</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600312/play-by-play</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B80" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A80,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600101/play-by-play</v>
-      </c>
-      <c r="G80">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600313/play-by-play</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B81" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A81,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600102/play-by-play</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600314/play-by-play</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B82" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A82,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600103/play-by-play</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600401/play-by-play</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B83" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A83,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600104/play-by-play</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600402/play-by-play</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B84" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A84,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600105/play-by-play</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600403/play-by-play</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B85" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A85,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600106/play-by-play</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600404/play-by-play</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="B86" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A86,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600101/play-by-play</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041600405/play-by-play</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="B87" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A87,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600102/play-by-play</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500101/play-by-play</v>
+      </c>
+      <c r="G87">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="B88" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A88,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600103/play-by-play</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500102/play-by-play</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="B89" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A89,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600104/play-by-play</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500103/play-by-play</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="B90" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A90,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600105/play-by-play</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500104/play-by-play</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="B91" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A91,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600106/play-by-play</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500111/play-by-play</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="B92" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A92,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600111/play-by-play</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500112/play-by-play</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="B93" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A93,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600112/play-by-play</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500113/play-by-play</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="B94" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A94,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600113/play-by-play</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500114/play-by-play</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B95" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A95,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600114/play-by-play</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041500115/play-by-play</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B96" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A96,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600121/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500116/play-by-play</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -17010,7 +16257,7 @@
       </c>
       <c r="B97" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A97,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600122/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500117/play-by-play</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -17019,7 +16266,7 @@
       </c>
       <c r="B98" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A98,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600123/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500121/play-by-play</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -17028,7 +16275,7 @@
       </c>
       <c r="B99" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A99,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600124/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500122/play-by-play</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -17037,7 +16284,7 @@
       </c>
       <c r="B100" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A100,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500123/play-by-play</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -17046,7 +16293,7 @@
       </c>
       <c r="B101" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A101,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600126/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500124/play-by-play</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -17055,7 +16302,7 @@
       </c>
       <c r="B102" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A102,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500125/play-by-play</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -17064,7 +16311,7 @@
       </c>
       <c r="B103" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A103,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500126/play-by-play</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -17073,7 +16320,7 @@
       </c>
       <c r="B104" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A104,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500127/play-by-play</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -17082,7 +16329,7 @@
       </c>
       <c r="B105" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A105,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500131/play-by-play</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -17091,7 +16338,7 @@
       </c>
       <c r="B106" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A106,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600135/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500132/play-by-play</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -17100,7 +16347,7 @@
       </c>
       <c r="B107" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A107,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600136/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500133/play-by-play</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -17109,7 +16356,7 @@
       </c>
       <c r="B108" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A108,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500134/play-by-play</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -17118,7 +16365,7 @@
       </c>
       <c r="B109" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A109,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500135/play-by-play</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -17127,7 +16374,7 @@
       </c>
       <c r="B110" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A110,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500136/play-by-play</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -17136,7 +16383,7 @@
       </c>
       <c r="B111" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A111,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500141/play-by-play</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -17145,7 +16392,7 @@
       </c>
       <c r="B112" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A112,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500142/play-by-play</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -17154,7 +16401,7 @@
       </c>
       <c r="B113" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A113,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500143/play-by-play</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -17163,7 +16410,7 @@
       </c>
       <c r="B114" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A114,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500144/play-by-play</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -17172,7 +16419,7 @@
       </c>
       <c r="B115" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A115,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500145/play-by-play</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -17181,7 +16428,7 @@
       </c>
       <c r="B116" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A116,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600155/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500151/play-by-play</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -17190,7 +16437,7 @@
       </c>
       <c r="B117" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A117,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600156/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500152/play-by-play</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -17199,7 +16446,7 @@
       </c>
       <c r="B118" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A118,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500153/play-by-play</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -17208,7 +16455,7 @@
       </c>
       <c r="B119" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A119,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500154/play-by-play</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -17217,7 +16464,7 @@
       </c>
       <c r="B120" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A120,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500161/play-by-play</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -17226,7 +16473,7 @@
       </c>
       <c r="B121" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A121,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500162/play-by-play</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -17235,7 +16482,7 @@
       </c>
       <c r="B122" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A122,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600165/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500163/play-by-play</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -17244,7 +16491,7 @@
       </c>
       <c r="B123" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A123,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500164/play-by-play</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -17253,7 +16500,7 @@
       </c>
       <c r="B124" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A124,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500165/play-by-play</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -17262,7 +16509,7 @@
       </c>
       <c r="B125" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A125,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500171/play-by-play</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -17271,7 +16518,7 @@
       </c>
       <c r="B126" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A126,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500172/play-by-play</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -17280,7 +16527,7 @@
       </c>
       <c r="B127" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A127,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500173/play-by-play</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17289,7 +16536,7 @@
       </c>
       <c r="B128" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A128,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600176/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500174/play-by-play</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17298,7 +16545,7 @@
       </c>
       <c r="B129" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A129,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600177/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500175/play-by-play</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17307,7 +16554,7 @@
       </c>
       <c r="B130" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A130,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500176/play-by-play</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -17316,7 +16563,7 @@
       </c>
       <c r="B131" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A131,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500201/play-by-play</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17325,7 +16572,7 @@
       </c>
       <c r="B132" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A132,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500202/play-by-play</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17334,7 +16581,7 @@
       </c>
       <c r="B133" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A133,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500203/play-by-play</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -17343,7 +16590,7 @@
       </c>
       <c r="B134" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A134,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600205/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500204/play-by-play</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17352,7 +16599,7 @@
       </c>
       <c r="B135" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A135,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600206/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500211/play-by-play</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17361,7 +16608,7 @@
       </c>
       <c r="B136" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A136,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600207/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500212/play-by-play</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17370,7 +16617,7 @@
       </c>
       <c r="B137" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A137,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500213/play-by-play</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17379,7 +16626,7 @@
       </c>
       <c r="B138" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A138,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500214/play-by-play</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -17388,7 +16635,7 @@
       </c>
       <c r="B139" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A139,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500215/play-by-play</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -17397,7 +16644,7 @@
       </c>
       <c r="B140" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A140,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500216/play-by-play</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -17406,7 +16653,7 @@
       </c>
       <c r="B141" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A141,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500217/play-by-play</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -17415,7 +16662,7 @@
       </c>
       <c r="B142" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A142,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500221/play-by-play</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -17424,7 +16671,7 @@
       </c>
       <c r="B143" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A143,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500222/play-by-play</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -17433,7 +16680,7 @@
       </c>
       <c r="B144" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A144,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500223/play-by-play</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -17442,7 +16689,7 @@
       </c>
       <c r="B145" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A145,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500224/play-by-play</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -17451,7 +16698,7 @@
       </c>
       <c r="B146" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A146,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500225/play-by-play</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -17460,7 +16707,7 @@
       </c>
       <c r="B147" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A147,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500231/play-by-play</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -17469,7 +16716,7 @@
       </c>
       <c r="B148" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A148,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500232/play-by-play</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -17478,7 +16725,7 @@
       </c>
       <c r="B149" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A149,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500233/play-by-play</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -17487,7 +16734,7 @@
       </c>
       <c r="B150" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A150,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600236/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500234/play-by-play</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -17496,7 +16743,7 @@
       </c>
       <c r="B151" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A151,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500235/play-by-play</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -17505,7 +16752,7 @@
       </c>
       <c r="B152" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A152,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500236/play-by-play</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -17514,7 +16761,7 @@
       </c>
       <c r="B153" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A153,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600303/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500301/play-by-play</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -17523,7 +16770,7 @@
       </c>
       <c r="B154" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A154,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600304/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500302/play-by-play</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -17532,7 +16779,7 @@
       </c>
       <c r="B155" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A155,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600305/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500303/play-by-play</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -17541,7 +16788,7 @@
       </c>
       <c r="B156" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A156,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600311/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500304/play-by-play</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -17550,7 +16797,7 @@
       </c>
       <c r="B157" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A157,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600312/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500305/play-by-play</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -17559,7 +16806,7 @@
       </c>
       <c r="B158" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A158,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600313/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500306/play-by-play</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -17568,7 +16815,7 @@
       </c>
       <c r="B159" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A159,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600314/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500311/play-by-play</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -17577,7 +16824,7 @@
       </c>
       <c r="B160" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A160,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600401/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500312/play-by-play</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -17586,7 +16833,7 @@
       </c>
       <c r="B161" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A161,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600402/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500313/play-by-play</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -17595,7 +16842,7 @@
       </c>
       <c r="B162" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A162,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600403/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500314/play-by-play</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -17604,7 +16851,7 @@
       </c>
       <c r="B163" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A163,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600404/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500315/play-by-play</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -17613,7 +16860,7 @@
       </c>
       <c r="B164" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A164,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041600405/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500316/play-by-play</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -17622,10 +16869,7 @@
       </c>
       <c r="B165" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A165,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500101/play-by-play</v>
-      </c>
-      <c r="G165">
-        <v>2015</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500317/play-by-play</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -17634,7 +16878,7 @@
       </c>
       <c r="B166" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A166,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500102/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500401/play-by-play</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -17643,7 +16887,7 @@
       </c>
       <c r="B167" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A167,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500103/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500402/play-by-play</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -17652,7 +16896,7 @@
       </c>
       <c r="B168" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A168,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500104/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500403/play-by-play</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -17661,7 +16905,7 @@
       </c>
       <c r="B169" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A169,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500111/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500404/play-by-play</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -17670,7 +16914,7 @@
       </c>
       <c r="B170" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A170,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500112/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500405/play-by-play</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -17679,7 +16923,7 @@
       </c>
       <c r="B171" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A171,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500113/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500406/play-by-play</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -17688,7 +16932,7 @@
       </c>
       <c r="B172" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A172,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500114/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041500407/play-by-play</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -17697,7 +16941,10 @@
       </c>
       <c r="B173" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A173,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500115/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400101/play-by-play</v>
+      </c>
+      <c r="G173">
+        <v>2014</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -17706,7 +16953,7 @@
       </c>
       <c r="B174" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A174,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500116/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400102/play-by-play</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -17715,7 +16962,7 @@
       </c>
       <c r="B175" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A175,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500117/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400103/play-by-play</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -17724,7 +16971,7 @@
       </c>
       <c r="B176" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A176,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500121/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400104/play-by-play</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -17733,7 +16980,7 @@
       </c>
       <c r="B177" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A177,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500122/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400105/play-by-play</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -17742,7 +16989,7 @@
       </c>
       <c r="B178" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A178,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500123/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400106/play-by-play</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -17751,7 +16998,7 @@
       </c>
       <c r="B179" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A179,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500124/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400111/play-by-play</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -17760,7 +17007,7 @@
       </c>
       <c r="B180" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A180,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400112/play-by-play</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -17769,7 +17016,7 @@
       </c>
       <c r="B181" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A181,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500126/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400113/play-by-play</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -17778,7 +17025,7 @@
       </c>
       <c r="B182" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A182,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500127/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400114/play-by-play</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -17787,7 +17034,7 @@
       </c>
       <c r="B183" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A183,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400121/play-by-play</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -17796,7 +17043,7 @@
       </c>
       <c r="B184" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A184,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400122/play-by-play</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -17805,7 +17052,7 @@
       </c>
       <c r="B185" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A185,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400123/play-by-play</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -17814,7 +17061,7 @@
       </c>
       <c r="B186" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A186,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400124/play-by-play</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -17823,7 +17070,7 @@
       </c>
       <c r="B187" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A187,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500135/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400125/play-by-play</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -17832,7 +17079,7 @@
       </c>
       <c r="B188" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A188,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500136/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400126/play-by-play</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -17841,7 +17088,7 @@
       </c>
       <c r="B189" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A189,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400131/play-by-play</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -17850,7 +17097,7 @@
       </c>
       <c r="B190" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A190,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400132/play-by-play</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -17859,7 +17106,7 @@
       </c>
       <c r="B191" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A191,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400133/play-by-play</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -17868,7 +17115,7 @@
       </c>
       <c r="B192" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A192,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400134/play-by-play</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -17877,7 +17124,7 @@
       </c>
       <c r="B193" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A193,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500145/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400141/play-by-play</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -17886,7 +17133,7 @@
       </c>
       <c r="B194" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A194,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400142/play-by-play</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -17895,7 +17142,7 @@
       </c>
       <c r="B195" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A195,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400143/play-by-play</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -17904,7 +17151,7 @@
       </c>
       <c r="B196" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A196,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400144/play-by-play</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -17913,7 +17160,7 @@
       </c>
       <c r="B197" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A197,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400151/play-by-play</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -17922,7 +17169,7 @@
       </c>
       <c r="B198" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A198,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400152/play-by-play</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -17931,7 +17178,7 @@
       </c>
       <c r="B199" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A199,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400153/play-by-play</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -17940,7 +17187,7 @@
       </c>
       <c r="B200" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A200,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400154/play-by-play</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -17949,7 +17196,7 @@
       </c>
       <c r="B201" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A201,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400155/play-by-play</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -17958,7 +17205,7 @@
       </c>
       <c r="B202" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A202,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500165/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400161/play-by-play</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -17967,7 +17214,7 @@
       </c>
       <c r="B203" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A203,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400162/play-by-play</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -17976,7 +17223,7 @@
       </c>
       <c r="B204" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A204,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400163/play-by-play</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -17985,7 +17232,7 @@
       </c>
       <c r="B205" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A205,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400164/play-by-play</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -17994,7 +17241,7 @@
       </c>
       <c r="B206" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A206,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400165/play-by-play</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -18003,7 +17250,7 @@
       </c>
       <c r="B207" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A207,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400166/play-by-play</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -18012,7 +17259,7 @@
       </c>
       <c r="B208" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A208,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500176/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400167/play-by-play</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -18021,7 +17268,7 @@
       </c>
       <c r="B209" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A209,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400171/play-by-play</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -18030,7 +17277,7 @@
       </c>
       <c r="B210" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A210,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400172/play-by-play</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -18039,7 +17286,7 @@
       </c>
       <c r="B211" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A211,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400173/play-by-play</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -18048,7 +17295,7 @@
       </c>
       <c r="B212" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A212,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400174/play-by-play</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -18057,7 +17304,7 @@
       </c>
       <c r="B213" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A213,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400175/play-by-play</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -18066,7 +17313,7 @@
       </c>
       <c r="B214" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A214,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400201/play-by-play</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -18075,7 +17322,7 @@
       </c>
       <c r="B215" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A215,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400202/play-by-play</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -18084,7 +17331,7 @@
       </c>
       <c r="B216" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A216,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400203/play-by-play</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -18093,7 +17340,7 @@
       </c>
       <c r="B217" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A217,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500215/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400204/play-by-play</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -18102,7 +17349,7 @@
       </c>
       <c r="B218" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A218,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500216/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400205/play-by-play</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -18111,7 +17358,7 @@
       </c>
       <c r="B219" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A219,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500217/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400206/play-by-play</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -18120,7 +17367,7 @@
       </c>
       <c r="B220" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A220,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400211/play-by-play</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -18129,7 +17376,7 @@
       </c>
       <c r="B221" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A221,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400212/play-by-play</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -18138,7 +17385,7 @@
       </c>
       <c r="B222" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A222,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400213/play-by-play</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -18147,7 +17394,7 @@
       </c>
       <c r="B223" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A223,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400214/play-by-play</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -18156,7 +17403,7 @@
       </c>
       <c r="B224" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A224,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500225/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400215/play-by-play</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -18165,7 +17412,7 @@
       </c>
       <c r="B225" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A225,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400216/play-by-play</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -18174,7 +17421,7 @@
       </c>
       <c r="B226" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A226,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400221/play-by-play</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -18183,7 +17430,7 @@
       </c>
       <c r="B227" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A227,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400222/play-by-play</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -18192,7 +17439,7 @@
       </c>
       <c r="B228" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A228,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400223/play-by-play</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -18201,7 +17448,7 @@
       </c>
       <c r="B229" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A229,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400224/play-by-play</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -18210,7 +17457,7 @@
       </c>
       <c r="B230" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A230,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500236/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400225/play-by-play</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -18219,7 +17466,7 @@
       </c>
       <c r="B231" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A231,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400226/play-by-play</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -18228,7 +17475,7 @@
       </c>
       <c r="B232" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A232,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400231/play-by-play</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -18237,7 +17484,7 @@
       </c>
       <c r="B233" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A233,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500303/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400232/play-by-play</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -18246,7 +17493,7 @@
       </c>
       <c r="B234" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A234,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500304/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400233/play-by-play</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -18255,7 +17502,7 @@
       </c>
       <c r="B235" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A235,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500305/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400234/play-by-play</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -18264,7 +17511,7 @@
       </c>
       <c r="B236" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A236,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500306/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400235/play-by-play</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -18273,7 +17520,7 @@
       </c>
       <c r="B237" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A237,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500311/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400236/play-by-play</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -18282,7 +17529,7 @@
       </c>
       <c r="B238" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A238,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500312/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400237/play-by-play</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -18291,7 +17538,7 @@
       </c>
       <c r="B239" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A239,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500313/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-0041400301/play-by-play</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -18300,2401 +17547,1888 @@
       </c>
       <c r="B240" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A240,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500314/play-by-play</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400302/play-by-play</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="B241" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A241,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500315/play-by-play</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400303/play-by-play</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="B242" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A242,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500316/play-by-play</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400304/play-by-play</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="B243" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A243,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500317/play-by-play</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400311/play-by-play</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="B244" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A244,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500401/play-by-play</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400312/play-by-play</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1418</v>
       </c>
       <c r="B245" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A245,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500402/play-by-play</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400313/play-by-play</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="B246" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A246,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500403/play-by-play</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400314/play-by-play</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="B247" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A247,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500404/play-by-play</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400315/play-by-play</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="B248" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A248,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500405/play-by-play</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400401/play-by-play</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="B249" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A249,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500406/play-by-play</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400402/play-by-play</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="B250" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A250,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041500407/play-by-play</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400403/play-by-play</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="B251" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A251,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400101/play-by-play</v>
-      </c>
-      <c r="G251">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400404/play-by-play</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="B252" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A252,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400102/play-by-play</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://www.nba.com/game/...-vs-...-0041400405/play-by-play</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="B253" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A253,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400103/play-by-play</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>1427</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-0041400406/play-by-play</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
       <c r="B254" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A254,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400104/play-by-play</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>1428</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
       <c r="B255" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A255,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400105/play-by-play</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>1429</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
       <c r="B256" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A256,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400106/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>1430</v>
-      </c>
+      <c r="A257" s="1"/>
       <c r="B257" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A257,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400111/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>1431</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A258,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400112/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>1432</v>
-      </c>
+      <c r="A259" s="1"/>
       <c r="B259" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A259,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400113/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A260,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400114/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>1434</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A261,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400121/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>1435</v>
-      </c>
+      <c r="A262" s="1"/>
       <c r="B262" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A262,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400122/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>1436</v>
-      </c>
+      <c r="A263" s="1"/>
       <c r="B263" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A263,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400123/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>1437</v>
-      </c>
+      <c r="A264" s="1"/>
       <c r="B264" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A264,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400124/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>1438</v>
-      </c>
+      <c r="A265" s="1"/>
       <c r="B265" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A265,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>1439</v>
-      </c>
+      <c r="A266" s="1"/>
       <c r="B266" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A266,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400126/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>1440</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A267,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A268" s="1"/>
       <c r="B268" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A268,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>1442</v>
-      </c>
+      <c r="A269" s="1"/>
       <c r="B269" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A269,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>1443</v>
-      </c>
+      <c r="A270" s="1"/>
       <c r="B270" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A270,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>1444</v>
-      </c>
+      <c r="A271" s="1"/>
       <c r="B271" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A271,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>1445</v>
-      </c>
+      <c r="A272" s="1"/>
       <c r="B272" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A272,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>1446</v>
-      </c>
+      <c r="A273" s="1"/>
       <c r="B273" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A273,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>1447</v>
-      </c>
+      <c r="A274" s="1"/>
       <c r="B274" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A274,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>1448</v>
-      </c>
+      <c r="A275" s="1"/>
       <c r="B275" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A275,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>1449</v>
-      </c>
+      <c r="A276" s="1"/>
       <c r="B276" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A276,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A277" s="1"/>
       <c r="B277" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A277,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>1451</v>
-      </c>
+      <c r="A278" s="1"/>
       <c r="B278" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A278,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>1452</v>
-      </c>
+      <c r="A279" s="1"/>
       <c r="B279" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A279,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400155/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>1453</v>
-      </c>
+      <c r="A280" s="1"/>
       <c r="B280" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A280,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>1454</v>
-      </c>
+      <c r="A281" s="1"/>
       <c r="B281" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A281,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>1455</v>
-      </c>
+      <c r="A282" s="1"/>
       <c r="B282" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A282,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>1456</v>
-      </c>
+      <c r="A283" s="1"/>
       <c r="B283" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A283,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>1457</v>
-      </c>
+      <c r="A284" s="1"/>
       <c r="B284" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A284,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400165/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>1458</v>
-      </c>
+      <c r="A285" s="1"/>
       <c r="B285" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A285,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400166/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>1459</v>
-      </c>
+      <c r="A286" s="1"/>
       <c r="B286" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A286,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400167/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>1460</v>
-      </c>
+      <c r="A287" s="1"/>
       <c r="B287" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A287,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>1461</v>
-      </c>
+      <c r="A288" s="1"/>
       <c r="B288" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A288,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>1462</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A289,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>1463</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A290,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>1464</v>
-      </c>
+      <c r="A291" s="1"/>
       <c r="B291" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A291,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>1465</v>
-      </c>
+      <c r="A292" s="1"/>
       <c r="B292" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A292,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>1466</v>
-      </c>
+      <c r="A293" s="1"/>
       <c r="B293" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A293,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A294" s="1"/>
       <c r="B294" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A294,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>1468</v>
-      </c>
+      <c r="A295" s="1"/>
       <c r="B295" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A295,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>1469</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A296,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400205/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>1470</v>
-      </c>
+      <c r="A297" s="1"/>
       <c r="B297" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A297,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400206/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>1471</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A298,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>1472</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A299,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>1473</v>
-      </c>
+      <c r="A300" s="1"/>
       <c r="B300" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A300,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>1474</v>
-      </c>
+      <c r="A301" s="1"/>
       <c r="B301" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A301,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>1475</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A302,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400215/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>1476</v>
-      </c>
+      <c r="A303" s="1"/>
       <c r="B303" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A303,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400216/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>1477</v>
-      </c>
+      <c r="A304" s="1"/>
       <c r="B304" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A304,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>1478</v>
-      </c>
+      <c r="A305" s="1"/>
       <c r="B305" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A305,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>1479</v>
-      </c>
+      <c r="A306" s="1"/>
       <c r="B306" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A306,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>1480</v>
-      </c>
+      <c r="A307" s="1"/>
       <c r="B307" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A307,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>1481</v>
-      </c>
+      <c r="A308" s="1"/>
       <c r="B308" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A308,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400225/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>1482</v>
-      </c>
+      <c r="A309" s="1"/>
       <c r="B309" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A309,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400226/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>1483</v>
-      </c>
+      <c r="A310" s="1"/>
       <c r="B310" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A310,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>1484</v>
-      </c>
+      <c r="A311" s="1"/>
       <c r="B311" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A311,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>1485</v>
-      </c>
+      <c r="A312" s="1"/>
       <c r="B312" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A312,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>1486</v>
-      </c>
+      <c r="A313" s="1"/>
       <c r="B313" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A313,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>1487</v>
-      </c>
+      <c r="A314" s="1"/>
       <c r="B314" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A314,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>1488</v>
-      </c>
+      <c r="A315" s="1"/>
       <c r="B315" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A315,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400236/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>1489</v>
-      </c>
+      <c r="A316" s="1"/>
       <c r="B316" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A316,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400237/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>1490</v>
-      </c>
+      <c r="A317" s="1"/>
       <c r="B317" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A317,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>1491</v>
-      </c>
+      <c r="A318" s="1"/>
       <c r="B318" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A318,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>1492</v>
-      </c>
+      <c r="A319" s="1"/>
       <c r="B319" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A319,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400303/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>1493</v>
-      </c>
+      <c r="A320" s="1"/>
       <c r="B320" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A320,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400304/play-by-play</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>1494</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
       <c r="B321" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A321,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400311/play-by-play</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>1495</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
       <c r="B322" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A322,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400312/play-by-play</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>1496</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
       <c r="B323" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A323,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400313/play-by-play</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>1497</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
       <c r="B324" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A324,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400314/play-by-play</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>1498</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
       <c r="B325" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A325,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400315/play-by-play</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>1499</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
       <c r="B326" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A326,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400401/play-by-play</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>1500</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
       <c r="B327" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A327,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400402/play-by-play</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>1501</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
       <c r="B328" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A328,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400403/play-by-play</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>1502</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
       <c r="B329" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A329,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400404/play-by-play</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>1503</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
       <c r="B330" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A330,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400405/play-by-play</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>1504</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
       <c r="B331" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A331,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041400406/play-by-play</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>1505</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
       <c r="B332" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A332,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300101/play-by-play</v>
-      </c>
-      <c r="G332">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>1506</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
       <c r="B333" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A333,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300102/play-by-play</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>1507</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
       <c r="B334" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A334,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300103/play-by-play</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>1508</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
       <c r="B335" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A335,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300104/play-by-play</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>1509</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
       <c r="B336" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A336,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300105/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>1510</v>
-      </c>
+      <c r="A337" s="1"/>
       <c r="B337" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A337,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300106/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>1511</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A338,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300107/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>1512</v>
-      </c>
+      <c r="A339" s="1"/>
       <c r="B339" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A339,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300111/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>1513</v>
-      </c>
+      <c r="A340" s="1"/>
       <c r="B340" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A340,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300112/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>1514</v>
-      </c>
+      <c r="A341" s="1"/>
       <c r="B341" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A341,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300113/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>1515</v>
-      </c>
+      <c r="A342" s="1"/>
       <c r="B342" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A342,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300114/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>1516</v>
-      </c>
+      <c r="A343" s="1"/>
       <c r="B343" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A343,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300121/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>1517</v>
-      </c>
+      <c r="A344" s="1"/>
       <c r="B344" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A344,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300122/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>1518</v>
-      </c>
+      <c r="A345" s="1"/>
       <c r="B345" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A345,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300123/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>1519</v>
-      </c>
+      <c r="A346" s="1"/>
       <c r="B346" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A346,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300124/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>1520</v>
-      </c>
+      <c r="A347" s="1"/>
       <c r="B347" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A347,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>1521</v>
-      </c>
+      <c r="A348" s="1"/>
       <c r="B348" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A348,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300126/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>1522</v>
-      </c>
+      <c r="A349" s="1"/>
       <c r="B349" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A349,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300127/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>1523</v>
-      </c>
+      <c r="A350" s="1"/>
       <c r="B350" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A350,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>1524</v>
-      </c>
+      <c r="A351" s="1"/>
       <c r="B351" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A351,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>1525</v>
-      </c>
+      <c r="A352" s="1"/>
       <c r="B352" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A352,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>1526</v>
-      </c>
+      <c r="A353" s="1"/>
       <c r="B353" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A353,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>1527</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A354,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300135/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>1528</v>
-      </c>
+      <c r="A355" s="1"/>
       <c r="B355" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A355,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>1529</v>
-      </c>
+      <c r="A356" s="1"/>
       <c r="B356" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A356,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A357" s="1"/>
       <c r="B357" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A357,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>1531</v>
-      </c>
+      <c r="A358" s="1"/>
       <c r="B358" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A358,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>1532</v>
-      </c>
+      <c r="A359" s="1"/>
       <c r="B359" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A359,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300145/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>1533</v>
-      </c>
+      <c r="A360" s="1"/>
       <c r="B360" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A360,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300146/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>1534</v>
-      </c>
+      <c r="A361" s="1"/>
       <c r="B361" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A361,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300147/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>1535</v>
-      </c>
+      <c r="A362" s="1"/>
       <c r="B362" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A362,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>1536</v>
-      </c>
+      <c r="A363" s="1"/>
       <c r="B363" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A363,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>1537</v>
-      </c>
+      <c r="A364" s="1"/>
       <c r="B364" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A364,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>1538</v>
-      </c>
+      <c r="A365" s="1"/>
       <c r="B365" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A365,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>1539</v>
-      </c>
+      <c r="A366" s="1"/>
       <c r="B366" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A366,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300155/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>1540</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A367,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300156/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>1541</v>
-      </c>
+      <c r="A368" s="1"/>
       <c r="B368" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A368,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300157/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>1542</v>
-      </c>
+      <c r="A369" s="1"/>
       <c r="B369" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A369,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>1543</v>
-      </c>
+      <c r="A370" s="1"/>
       <c r="B370" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A370,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>1544</v>
-      </c>
+      <c r="A371" s="1"/>
       <c r="B371" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A371,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>1545</v>
-      </c>
+      <c r="A372" s="1"/>
       <c r="B372" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A372,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>1546</v>
-      </c>
+      <c r="A373" s="1"/>
       <c r="B373" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A373,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300165/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>1547</v>
-      </c>
+      <c r="A374" s="1"/>
       <c r="B374" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A374,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300166/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>1548</v>
-      </c>
+      <c r="A375" s="1"/>
       <c r="B375" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A375,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300167/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A376,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>1550</v>
-      </c>
+      <c r="A377" s="1"/>
       <c r="B377" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A377,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>1551</v>
-      </c>
+      <c r="A378" s="1"/>
       <c r="B378" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A378,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>1552</v>
-      </c>
+      <c r="A379" s="1"/>
       <c r="B379" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A379,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>1553</v>
-      </c>
+      <c r="A380" s="1"/>
       <c r="B380" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A380,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>1554</v>
-      </c>
+      <c r="A381" s="1"/>
       <c r="B381" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A381,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300176/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>1555</v>
-      </c>
+      <c r="A382" s="1"/>
       <c r="B382" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A382,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>1556</v>
-      </c>
+      <c r="A383" s="1"/>
       <c r="B383" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A383,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>1557</v>
-      </c>
+      <c r="A384" s="1"/>
       <c r="B384" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A384,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A385" s="1"/>
       <c r="B385" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A385,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>1559</v>
-      </c>
+      <c r="A386" s="1"/>
       <c r="B386" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A386,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300205/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>1560</v>
-      </c>
+      <c r="A387" s="1"/>
       <c r="B387" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A387,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300206/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A388" s="1"/>
       <c r="B388" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A388,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>1562</v>
-      </c>
+      <c r="A389" s="1"/>
       <c r="B389" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A389,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>1563</v>
-      </c>
+      <c r="A390" s="1"/>
       <c r="B390" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A390,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>1564</v>
-      </c>
+      <c r="A391" s="1"/>
       <c r="B391" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A391,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>1565</v>
-      </c>
+      <c r="A392" s="1"/>
       <c r="B392" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A392,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300215/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A393" s="1"/>
       <c r="B393" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A393,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>1567</v>
-      </c>
+      <c r="A394" s="1"/>
       <c r="B394" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A394,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>1568</v>
-      </c>
+      <c r="A395" s="1"/>
       <c r="B395" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A395,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>1569</v>
-      </c>
+      <c r="A396" s="1"/>
       <c r="B396" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A396,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>1570</v>
-      </c>
+      <c r="A397" s="1"/>
       <c r="B397" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A397,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300225/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>1571</v>
-      </c>
+      <c r="A398" s="1"/>
       <c r="B398" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A398,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>1572</v>
-      </c>
+      <c r="A399" s="1"/>
       <c r="B399" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A399,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A400" s="1"/>
       <c r="B400" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A400,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>1574</v>
-      </c>
+      <c r="A401" s="1"/>
       <c r="B401" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A401,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>1575</v>
-      </c>
+      <c r="A402" s="1"/>
       <c r="B402" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A402,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>1576</v>
-      </c>
+      <c r="A403" s="1"/>
       <c r="B403" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A403,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300236/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>1577</v>
-      </c>
+      <c r="A404" s="1"/>
       <c r="B404" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A404,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>1578</v>
-      </c>
+      <c r="A405" s="1"/>
       <c r="B405" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A405,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>1579</v>
-      </c>
+      <c r="A406" s="1"/>
       <c r="B406" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A406,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300303/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>1580</v>
-      </c>
+      <c r="A407" s="1"/>
       <c r="B407" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A407,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300304/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>1581</v>
-      </c>
+      <c r="A408" s="1"/>
       <c r="B408" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A408,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300305/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>1582</v>
-      </c>
+      <c r="A409" s="1"/>
       <c r="B409" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A409,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300306/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>1583</v>
-      </c>
+      <c r="A410" s="1"/>
       <c r="B410" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A410,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300311/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>1584</v>
-      </c>
+      <c r="A411" s="1"/>
       <c r="B411" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A411,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300312/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>1585</v>
-      </c>
+      <c r="A412" s="1"/>
       <c r="B412" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A412,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300313/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>1586</v>
-      </c>
+      <c r="A413" s="1"/>
       <c r="B413" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A413,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300314/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>1587</v>
-      </c>
+      <c r="A414" s="1"/>
       <c r="B414" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A414,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300315/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>1588</v>
-      </c>
+      <c r="A415" s="1"/>
       <c r="B415" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A415,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300316/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>1589</v>
-      </c>
+      <c r="A416" s="1"/>
       <c r="B416" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A416,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300401/play-by-play</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>1590</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
       <c r="B417" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A417,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300402/play-by-play</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
-        <v>1591</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
       <c r="B418" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A418,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300403/play-by-play</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
-        <v>1592</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
       <c r="B419" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A419,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300404/play-by-play</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
-        <v>1593</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
       <c r="B420" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A420,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041300405/play-by-play</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>1594</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
       <c r="B421" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A421,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200101/play-by-play</v>
-      </c>
-      <c r="G421">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>1595</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
       <c r="B422" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A422,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200102/play-by-play</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>1596</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
       <c r="B423" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A423,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200103/play-by-play</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>1597</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
       <c r="B424" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A424,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200104/play-by-play</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>1598</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
       <c r="B425" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A425,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200111/play-by-play</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>1599</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
       <c r="B426" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A426,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200112/play-by-play</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>1600</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
       <c r="B427" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A427,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200113/play-by-play</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>1601</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
       <c r="B428" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A428,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200114/play-by-play</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>1602</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
       <c r="B429" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A429,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200115/play-by-play</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>1603</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
       <c r="B430" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A430,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200116/play-by-play</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>1604</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
       <c r="B431" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A431,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200121/play-by-play</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>1605</v>
-      </c>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
       <c r="B432" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A432,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200122/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>1606</v>
-      </c>
+      <c r="A433" s="1"/>
       <c r="B433" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A433,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200123/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>1607</v>
-      </c>
+      <c r="A434" s="1"/>
       <c r="B434" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A434,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200124/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>1608</v>
-      </c>
+      <c r="A435" s="1"/>
       <c r="B435" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A435,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200125/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>1609</v>
-      </c>
+      <c r="A436" s="1"/>
       <c r="B436" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A436,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200126/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>1610</v>
-      </c>
+      <c r="A437" s="1"/>
       <c r="B437" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A437,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200131/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>1611</v>
-      </c>
+      <c r="A438" s="1"/>
       <c r="B438" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A438,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200132/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>1612</v>
-      </c>
+      <c r="A439" s="1"/>
       <c r="B439" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A439,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200133/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>1613</v>
-      </c>
+      <c r="A440" s="1"/>
       <c r="B440" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A440,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200134/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>1614</v>
-      </c>
+      <c r="A441" s="1"/>
       <c r="B441" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A441,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200135/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>1615</v>
-      </c>
+      <c r="A442" s="1"/>
       <c r="B442" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A442,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200136/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
-        <v>1616</v>
-      </c>
+      <c r="A443" s="1"/>
       <c r="B443" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A443,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200137/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A444" s="1"/>
       <c r="B444" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A444,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200141/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>1618</v>
-      </c>
+      <c r="A445" s="1"/>
       <c r="B445" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A445,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200142/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>1619</v>
-      </c>
+      <c r="A446" s="1"/>
       <c r="B446" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A446,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200143/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>1620</v>
-      </c>
+      <c r="A447" s="1"/>
       <c r="B447" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A447,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200144/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>1621</v>
-      </c>
+      <c r="A448" s="1"/>
       <c r="B448" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A448,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200145/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>1622</v>
-      </c>
+      <c r="A449" s="1"/>
       <c r="B449" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A449,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200146/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>1623</v>
-      </c>
+      <c r="A450" s="1"/>
       <c r="B450" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A450,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200151/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="A451" s="1"/>
       <c r="B451" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A451,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200152/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>1625</v>
-      </c>
+      <c r="A452" s="1"/>
       <c r="B452" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A452,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200153/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>1626</v>
-      </c>
+      <c r="A453" s="1"/>
       <c r="B453" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A453,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200154/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>1627</v>
-      </c>
+      <c r="A454" s="1"/>
       <c r="B454" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A454,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200161/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>1628</v>
-      </c>
+      <c r="A455" s="1"/>
       <c r="B455" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A455,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200162/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>1629</v>
-      </c>
+      <c r="A456" s="1"/>
       <c r="B456" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A456,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200163/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>1630</v>
-      </c>
+      <c r="A457" s="1"/>
       <c r="B457" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A457,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200164/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>1631</v>
-      </c>
+      <c r="A458" s="1"/>
       <c r="B458" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A458,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200165/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>1632</v>
-      </c>
+      <c r="A459" s="1"/>
       <c r="B459" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A459,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200166/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>1633</v>
-      </c>
+      <c r="A460" s="1"/>
       <c r="B460" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A460,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200171/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>1634</v>
-      </c>
+      <c r="A461" s="1"/>
       <c r="B461" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A461,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200172/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>1635</v>
-      </c>
+      <c r="A462" s="1"/>
       <c r="B462" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A462,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200173/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>1636</v>
-      </c>
+      <c r="A463" s="1"/>
       <c r="B463" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A463,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200174/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>1637</v>
-      </c>
+      <c r="A464" s="1"/>
       <c r="B464" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A464,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200175/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>1638</v>
-      </c>
+      <c r="A465" s="1"/>
       <c r="B465" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A465,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200176/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>1639</v>
-      </c>
+      <c r="A466" s="1"/>
       <c r="B466" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A466,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200201/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>1640</v>
-      </c>
+      <c r="A467" s="1"/>
       <c r="B467" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A467,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200202/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>1641</v>
-      </c>
+      <c r="A468" s="1"/>
       <c r="B468" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A468,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200203/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>1642</v>
-      </c>
+      <c r="A469" s="1"/>
       <c r="B469" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A469,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200204/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>1643</v>
-      </c>
+      <c r="A470" s="1"/>
       <c r="B470" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A470,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200205/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>1644</v>
-      </c>
+      <c r="A471" s="1"/>
       <c r="B471" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A471,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200211/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>1645</v>
-      </c>
+      <c r="A472" s="1"/>
       <c r="B472" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A472,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200212/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>1646</v>
-      </c>
+      <c r="A473" s="1"/>
       <c r="B473" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A473,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200213/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>1647</v>
-      </c>
+      <c r="A474" s="1"/>
       <c r="B474" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A474,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200214/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
-        <v>1648</v>
-      </c>
+      <c r="A475" s="1"/>
       <c r="B475" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A475,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200215/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>1649</v>
-      </c>
+      <c r="A476" s="1"/>
       <c r="B476" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A476,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200216/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
-        <v>1650</v>
-      </c>
+      <c r="A477" s="1"/>
       <c r="B477" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A477,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200221/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>1651</v>
-      </c>
+      <c r="A478" s="1"/>
       <c r="B478" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A478,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200222/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
-        <v>1652</v>
-      </c>
+      <c r="A479" s="1"/>
       <c r="B479" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A479,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200223/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>1653</v>
-      </c>
+      <c r="A480" s="1"/>
       <c r="B480" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A480,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200224/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>1654</v>
-      </c>
+      <c r="A481" s="1"/>
       <c r="B481" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A481,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200225/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>1655</v>
-      </c>
+      <c r="A482" s="1"/>
       <c r="B482" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A482,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200231/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>1656</v>
-      </c>
+      <c r="A483" s="1"/>
       <c r="B483" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A483,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200232/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>1657</v>
-      </c>
+      <c r="A484" s="1"/>
       <c r="B484" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A484,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200233/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>1658</v>
-      </c>
+      <c r="A485" s="1"/>
       <c r="B485" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A485,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200234/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>1659</v>
-      </c>
+      <c r="A486" s="1"/>
       <c r="B486" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A486,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200235/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>1660</v>
-      </c>
+      <c r="A487" s="1"/>
       <c r="B487" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A487,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200236/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>1661</v>
-      </c>
+      <c r="A488" s="1"/>
       <c r="B488" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A488,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200301/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>1662</v>
-      </c>
+      <c r="A489" s="1"/>
       <c r="B489" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A489,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200302/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>1663</v>
-      </c>
+      <c r="A490" s="1"/>
       <c r="B490" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A490,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200303/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>1664</v>
-      </c>
+      <c r="A491" s="1"/>
       <c r="B491" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A491,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200304/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
-        <v>1665</v>
-      </c>
+      <c r="A492" s="1"/>
       <c r="B492" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A492,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200305/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
-        <v>1666</v>
-      </c>
+      <c r="A493" s="1"/>
       <c r="B493" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A493,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200306/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>1667</v>
-      </c>
+      <c r="A494" s="1"/>
       <c r="B494" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A494,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200307/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>1668</v>
-      </c>
+      <c r="A495" s="1"/>
       <c r="B495" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A495,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200311/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>1669</v>
-      </c>
+      <c r="A496" s="1"/>
       <c r="B496" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A496,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200312/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
-        <v>1670</v>
-      </c>
+      <c r="A497" s="1"/>
       <c r="B497" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A497,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200313/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>1671</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A498,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200314/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>1672</v>
-      </c>
+      <c r="A499" s="1"/>
       <c r="B499" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A499,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200401/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>1673</v>
-      </c>
+      <c r="A500" s="1"/>
       <c r="B500" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A500,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200402/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>1674</v>
-      </c>
+      <c r="A501" s="1"/>
       <c r="B501" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A501,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200403/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>1675</v>
-      </c>
+      <c r="A502" s="1"/>
       <c r="B502" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A502,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200404/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>1676</v>
-      </c>
+      <c r="A503" s="1"/>
       <c r="B503" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A503,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200405/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>1677</v>
-      </c>
+      <c r="A504" s="1"/>
       <c r="B504" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A504,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200406/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>1678</v>
-      </c>
+      <c r="A505" s="1"/>
       <c r="B505" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A505,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-0041200407/play-by-play</v>
+        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -36486,1770 +35220,6 @@
       <c r="A2761" s="1"/>
       <c r="B2761" s="3" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2761,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2762" s="1"/>
-      <c r="B2762" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2762,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2763" s="1"/>
-      <c r="B2763" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2763,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2764" s="1"/>
-      <c r="B2764" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2764,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2765" s="1"/>
-      <c r="B2765" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2765,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2766" s="1"/>
-      <c r="B2766" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2766,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2767" s="1"/>
-      <c r="B2767" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2767,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2768" s="1"/>
-      <c r="B2768" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2768,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2769" s="1"/>
-      <c r="B2769" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2769,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2770" s="1"/>
-      <c r="B2770" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2770,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2771" s="1"/>
-      <c r="B2771" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2771,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2772" s="1"/>
-      <c r="B2772" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2772,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2773" s="1"/>
-      <c r="B2773" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2773,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2774" s="1"/>
-      <c r="B2774" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2774,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2775" s="1"/>
-      <c r="B2775" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2775,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2776" s="1"/>
-      <c r="B2776" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2776,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2777" s="1"/>
-      <c r="B2777" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2777,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2778" s="1"/>
-      <c r="B2778" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2778,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2779" s="1"/>
-      <c r="B2779" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2779,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2780" s="1"/>
-      <c r="B2780" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2780,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2781" s="1"/>
-      <c r="B2781" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2781,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2782" s="1"/>
-      <c r="B2782" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2782,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2783" s="1"/>
-      <c r="B2783" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2783,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2784" s="1"/>
-      <c r="B2784" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2784,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2785" s="1"/>
-      <c r="B2785" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2785,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2786" s="1"/>
-      <c r="B2786" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2786,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2787" s="1"/>
-      <c r="B2787" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2787,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2788" s="1"/>
-      <c r="B2788" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2788,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2789" s="1"/>
-      <c r="B2789" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2789,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2790" s="1"/>
-      <c r="B2790" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2790,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2791" s="1"/>
-      <c r="B2791" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2791,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2792" s="1"/>
-      <c r="B2792" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2792,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2793" s="1"/>
-      <c r="B2793" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2793,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2794" s="1"/>
-      <c r="B2794" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2794,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2795" s="1"/>
-      <c r="B2795" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2795,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2796" s="1"/>
-      <c r="B2796" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2796,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2797" s="1"/>
-      <c r="B2797" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2797,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2798" s="1"/>
-      <c r="B2798" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2798,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2799" s="1"/>
-      <c r="B2799" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2799,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2800" s="1"/>
-      <c r="B2800" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2800,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2801" s="1"/>
-      <c r="B2801" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2801,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2802" s="1"/>
-      <c r="B2802" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2802,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2803" s="1"/>
-      <c r="B2803" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2803,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2804" s="1"/>
-      <c r="B2804" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2804,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2805" s="1"/>
-      <c r="B2805" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2805,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2806" s="1"/>
-      <c r="B2806" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2806,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2807" s="1"/>
-      <c r="B2807" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2807,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2808" s="1"/>
-      <c r="B2808" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2808,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2809" s="1"/>
-      <c r="B2809" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2809,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2810" s="1"/>
-      <c r="B2810" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2810,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2811" s="1"/>
-      <c r="B2811" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2811,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2812" s="1"/>
-      <c r="B2812" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2812,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2813" s="1"/>
-      <c r="B2813" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2813,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2814" s="1"/>
-      <c r="B2814" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2814,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2815" s="1"/>
-      <c r="B2815" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2815,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2816" s="1"/>
-      <c r="B2816" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2816,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2817" s="1"/>
-      <c r="B2817" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2817,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2818" s="1"/>
-      <c r="B2818" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2818,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2819" s="1"/>
-      <c r="B2819" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2819,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2820" s="1"/>
-      <c r="B2820" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2820,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2821" s="1"/>
-      <c r="B2821" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2821,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2822" s="1"/>
-      <c r="B2822" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2822,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2823" s="1"/>
-      <c r="B2823" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2823,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2824" s="1"/>
-      <c r="B2824" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2824,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2825" s="1"/>
-      <c r="B2825" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2825,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2826" s="1"/>
-      <c r="B2826" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2826,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2827" s="1"/>
-      <c r="B2827" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2827,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2828" s="1"/>
-      <c r="B2828" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2828,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2829" s="1"/>
-      <c r="B2829" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2829,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2830" s="1"/>
-      <c r="B2830" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2830,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2831" s="1"/>
-      <c r="B2831" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2831,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2832" s="1"/>
-      <c r="B2832" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2832,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2833" s="1"/>
-      <c r="B2833" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2833,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2834" s="1"/>
-      <c r="B2834" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2834,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2835" s="1"/>
-      <c r="B2835" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2835,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2836" s="1"/>
-      <c r="B2836" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2836,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2837" s="1"/>
-      <c r="B2837" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2837,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2838" s="1"/>
-      <c r="B2838" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2838,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2839" s="1"/>
-      <c r="B2839" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2839,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2840" s="1"/>
-      <c r="B2840" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2840,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2841" s="1"/>
-      <c r="B2841" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2841,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2842" s="1"/>
-      <c r="B2842" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2842,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2843" s="1"/>
-      <c r="B2843" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2843,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2844" s="1"/>
-      <c r="B2844" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2844,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2845" s="1"/>
-      <c r="B2845" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2845,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2846" s="1"/>
-      <c r="B2846" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2846,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2847" s="1"/>
-      <c r="B2847" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2847,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2848" s="1"/>
-      <c r="B2848" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2848,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2849" s="1"/>
-      <c r="B2849" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2849,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2850" s="1"/>
-      <c r="B2850" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2850,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2851" s="1"/>
-      <c r="B2851" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2851,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2852" s="1"/>
-      <c r="B2852" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2852,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2853" s="1"/>
-      <c r="B2853" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2853,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2854" s="1"/>
-      <c r="B2854" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2854,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2855" s="1"/>
-      <c r="B2855" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2855,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2856" s="1"/>
-      <c r="B2856" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2856,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2857" s="1"/>
-      <c r="B2857" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2857,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2858" s="1"/>
-      <c r="B2858" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2858,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2859" s="1"/>
-      <c r="B2859" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2859,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2860" s="1"/>
-      <c r="B2860" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2860,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2861" s="1"/>
-      <c r="B2861" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2861,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2862" s="1"/>
-      <c r="B2862" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2862,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2863" s="1"/>
-      <c r="B2863" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2863,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2864" s="1"/>
-      <c r="B2864" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2864,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2865" s="1"/>
-      <c r="B2865" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2865,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2866" s="1"/>
-      <c r="B2866" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2866,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2867" s="1"/>
-      <c r="B2867" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2867,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2868" s="1"/>
-      <c r="B2868" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2868,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2869" s="1"/>
-      <c r="B2869" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2869,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2870" s="1"/>
-      <c r="B2870" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2870,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2871" s="1"/>
-      <c r="B2871" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2871,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2872" s="1"/>
-      <c r="B2872" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2872,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2873" s="1"/>
-      <c r="B2873" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2873,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2874" s="1"/>
-      <c r="B2874" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2874,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2875" s="1"/>
-      <c r="B2875" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2875,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2876" s="1"/>
-      <c r="B2876" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2876,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2877" s="1"/>
-      <c r="B2877" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2877,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2878" s="1"/>
-      <c r="B2878" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2878,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2879" s="1"/>
-      <c r="B2879" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2879,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2880" s="1"/>
-      <c r="B2880" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2880,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2881" s="1"/>
-      <c r="B2881" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2881,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2882" s="1"/>
-      <c r="B2882" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2882,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2883" s="1"/>
-      <c r="B2883" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2883,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2884" s="1"/>
-      <c r="B2884" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2884,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2885" s="1"/>
-      <c r="B2885" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2885,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2886" s="1"/>
-      <c r="B2886" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2886,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2887" s="1"/>
-      <c r="B2887" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2887,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2888" s="1"/>
-      <c r="B2888" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2888,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2889" s="1"/>
-      <c r="B2889" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2889,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2890" s="1"/>
-      <c r="B2890" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2890,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2891" s="1"/>
-      <c r="B2891" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2891,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2892" s="1"/>
-      <c r="B2892" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2892,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2893" s="1"/>
-      <c r="B2893" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2893,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2894" s="1"/>
-      <c r="B2894" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2894,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2895" s="1"/>
-      <c r="B2895" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2895,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2896" s="1"/>
-      <c r="B2896" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2896,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2897" s="1"/>
-      <c r="B2897" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2897,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2898" s="1"/>
-      <c r="B2898" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2898,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2899" s="1"/>
-      <c r="B2899" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2899,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2900" s="1"/>
-      <c r="B2900" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2900,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2901" s="1"/>
-      <c r="B2901" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2901,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2902" s="1"/>
-      <c r="B2902" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2902,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2903" s="1"/>
-      <c r="B2903" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2903,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2904" s="1"/>
-      <c r="B2904" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2904,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2905" s="1"/>
-      <c r="B2905" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2905,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2906" s="1"/>
-      <c r="B2906" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2906,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2907" s="1"/>
-      <c r="B2907" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2907,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2908" s="1"/>
-      <c r="B2908" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2908,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2909" s="1"/>
-      <c r="B2909" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2909,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2910" s="1"/>
-      <c r="B2910" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2910,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2911" s="1"/>
-      <c r="B2911" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2911,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2912" s="1"/>
-      <c r="B2912" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2912,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2913" s="1"/>
-      <c r="B2913" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2913,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2914" s="1"/>
-      <c r="B2914" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2914,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2915" s="1"/>
-      <c r="B2915" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2915,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2916" s="1"/>
-      <c r="B2916" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2916,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2917" s="1"/>
-      <c r="B2917" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2917,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2918" s="1"/>
-      <c r="B2918" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2918,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2919" s="1"/>
-      <c r="B2919" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2919,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2920" s="1"/>
-      <c r="B2920" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2920,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2921" s="1"/>
-      <c r="B2921" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2921,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2922" s="1"/>
-      <c r="B2922" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2922,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2923" s="1"/>
-      <c r="B2923" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2923,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2924" s="1"/>
-      <c r="B2924" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2924,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2925" s="1"/>
-      <c r="B2925" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2925,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2926" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2926" s="1"/>
-      <c r="B2926" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2926,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2927" s="1"/>
-      <c r="B2927" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2927,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2928" s="1"/>
-      <c r="B2928" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2928,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2929" s="1"/>
-      <c r="B2929" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2929,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2930" s="1"/>
-      <c r="B2930" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2930,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2931" s="1"/>
-      <c r="B2931" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2931,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2932" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2932" s="1"/>
-      <c r="B2932" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2932,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2933" s="1"/>
-      <c r="B2933" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2933,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2934" s="1"/>
-      <c r="B2934" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2934,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2935" s="1"/>
-      <c r="B2935" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2935,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2936" s="1"/>
-      <c r="B2936" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2936,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2937" s="1"/>
-      <c r="B2937" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2937,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2938" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2938" s="1"/>
-      <c r="B2938" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2938,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2939" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2939" s="1"/>
-      <c r="B2939" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2939,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2940" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2940" s="1"/>
-      <c r="B2940" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2940,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2941" s="1"/>
-      <c r="B2941" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2941,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2942" s="1"/>
-      <c r="B2942" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2942,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2943" s="1"/>
-      <c r="B2943" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2943,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2944" s="1"/>
-      <c r="B2944" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2944,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2945" s="1"/>
-      <c r="B2945" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2945,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2946" s="1"/>
-      <c r="B2946" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2946,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2947" s="1"/>
-      <c r="B2947" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2947,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2948" s="1"/>
-      <c r="B2948" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2948,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2949" s="1"/>
-      <c r="B2949" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2949,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2950" s="1"/>
-      <c r="B2950" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2950,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2951" s="1"/>
-      <c r="B2951" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2951,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2952" s="1"/>
-      <c r="B2952" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2952,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2953" s="1"/>
-      <c r="B2953" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2953,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2954" s="1"/>
-      <c r="B2954" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2954,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2955" s="1"/>
-      <c r="B2955" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2955,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2956" s="1"/>
-      <c r="B2956" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2956,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2957" s="1"/>
-      <c r="B2957" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2957,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2958" s="1"/>
-      <c r="B2958" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2958,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2959" s="1"/>
-      <c r="B2959" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2959,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2960" s="1"/>
-      <c r="B2960" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2960,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2961" s="1"/>
-      <c r="B2961" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2961,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2962" s="1"/>
-      <c r="B2962" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2962,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2963" s="1"/>
-      <c r="B2963" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2963,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2964" s="1"/>
-      <c r="B2964" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2964,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2965" s="1"/>
-      <c r="B2965" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2965,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2966" s="1"/>
-      <c r="B2966" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2966,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2967" s="1"/>
-      <c r="B2967" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2967,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2968" s="1"/>
-      <c r="B2968" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2968,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2969" s="1"/>
-      <c r="B2969" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2969,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2970" s="1"/>
-      <c r="B2970" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2970,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2971" s="1"/>
-      <c r="B2971" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2971,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2972" s="1"/>
-      <c r="B2972" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2972,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2973" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2973" s="1"/>
-      <c r="B2973" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2973,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2974" s="1"/>
-      <c r="B2974" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2974,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2975" s="1"/>
-      <c r="B2975" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2975,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2976" s="1"/>
-      <c r="B2976" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2976,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2977" s="1"/>
-      <c r="B2977" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2977,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2978" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2978" s="1"/>
-      <c r="B2978" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2978,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2979" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2979" s="1"/>
-      <c r="B2979" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2979,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2980" s="1"/>
-      <c r="B2980" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2980,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2981" s="1"/>
-      <c r="B2981" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2981,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2982" s="1"/>
-      <c r="B2982" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2982,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2983" s="1"/>
-      <c r="B2983" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2983,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2984" s="1"/>
-      <c r="B2984" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2984,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2985" s="1"/>
-      <c r="B2985" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2985,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2986" s="1"/>
-      <c r="B2986" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2986,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2987" s="1"/>
-      <c r="B2987" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2987,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2988" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2988" s="1"/>
-      <c r="B2988" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2988,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2989" s="1"/>
-      <c r="B2989" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2989,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2990" s="1"/>
-      <c r="B2990" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2990,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2991" s="1"/>
-      <c r="B2991" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2991,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2992" s="1"/>
-      <c r="B2992" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2992,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2993" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2993" s="1"/>
-      <c r="B2993" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2993,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2994" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2994" s="1"/>
-      <c r="B2994" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2994,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2995" s="1"/>
-      <c r="B2995" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2995,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2996" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2996" s="1"/>
-      <c r="B2996" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2996,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2997" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2997" s="1"/>
-      <c r="B2997" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2997,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2998" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2998" s="1"/>
-      <c r="B2998" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2998,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="2999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2999" s="1"/>
-      <c r="B2999" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A2999,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3000" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3000" s="1"/>
-      <c r="B3000" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3000,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3001" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3001" s="1"/>
-      <c r="B3001" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3001,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3002" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3002" s="1"/>
-      <c r="B3002" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3002,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3003" s="1"/>
-      <c r="B3003" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3003,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3004" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3004" s="1"/>
-      <c r="B3004" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3004,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3005" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3005" s="1"/>
-      <c r="B3005" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3005,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3006" s="1"/>
-      <c r="B3006" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3006,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3007" s="1"/>
-      <c r="B3007" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3007,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3008" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3008" s="1"/>
-      <c r="B3008" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3008,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3009" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3009" s="1"/>
-      <c r="B3009" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3009,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3010" s="1"/>
-      <c r="B3010" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3010,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3011" s="1"/>
-      <c r="B3011" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3011,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3012" s="1"/>
-      <c r="B3012" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3012,"/play-by-play"))</f>
-        <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
-      </c>
-    </row>
-    <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3013" s="1"/>
-      <c r="B3013" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://www.nba.com/game/...-vs-...-", A3013,"/play-by-play"))</f>
         <v>https://www.nba.com/game/...-vs-...-/play-by-play</v>
       </c>
     </row>
